--- a/data/trans_dic/P70D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,1</t>
+          <t>0,0; 15,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 22,16</t>
+          <t>1,22; 20,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 13,67</t>
+          <t>1,93; 13,93</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 8,27</t>
+          <t>3,11; 8,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 11,4</t>
+          <t>4,61; 11,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,22; 8,25</t>
+          <t>4,18; 8,5</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,85</t>
+          <t>1,81; 4,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 8,59</t>
+          <t>4,37; 8,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,78</t>
+          <t>3,24; 5,72</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,01</t>
+          <t>1,4; 5,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,05</t>
+          <t>1,22; 4,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,1</t>
+          <t>1,64; 4,13</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 8,25</t>
+          <t>3,69; 8,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,03; 15,24</t>
+          <t>6,07; 13,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,82</t>
+          <t>5,31; 9,49</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,25</t>
+          <t>3,19; 5,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,06</t>
+          <t>5,04; 8,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,31; 6,1</t>
+          <t>4,35; 6,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P70D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,97</t>
+          <t>0,0; 17,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 20,14</t>
+          <t>1,14; 22,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 13,93</t>
+          <t>1,65; 13,67</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 8,49</t>
+          <t>2,87; 8,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 11,61</t>
+          <t>4,42; 11,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 8,5</t>
+          <t>4,22; 8,25</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,99</t>
+          <t>1,92; 4,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 8,39</t>
+          <t>4,27; 8,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,72</t>
+          <t>3,25; 5,78</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,09</t>
+          <t>1,32; 5,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,33</t>
+          <t>1,19; 4,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,13</t>
+          <t>1,68; 4,1</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,38</t>
+          <t>3,61; 8,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,07; 13,57</t>
+          <t>6,03; 15,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,31; 9,49</t>
+          <t>5,44; 9,82</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,15</t>
+          <t>3,23; 5,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,26</t>
+          <t>5,03; 8,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,06</t>
+          <t>4,31; 6,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,78%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,1</t>
+          <t>3,12; 8,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 22,16</t>
+          <t>4,4; 10,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 13,67</t>
+          <t>4,17; 7,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 8,27</t>
+          <t>0,91; 3,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 11,4</t>
+          <t>4,25; 8,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,22; 8,25</t>
+          <t>1,86; 5,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>2,52%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,85</t>
+          <t>1,31; 5,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 8,59</t>
+          <t>1,03; 3,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,78</t>
+          <t>1,55; 3,85</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>6,37%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,01</t>
+          <t>3,63; 8,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,05</t>
+          <t>4,45; 11,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,1</t>
+          <t>4,69; 8,73</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>4,53%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 8,25</t>
+          <t>2,38; 4,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,03; 15,24</t>
+          <t>4,41; 7,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,82</t>
+          <t>3,5; 5,44</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,16%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,18%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>3,23; 5,25</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,03; 8,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4,31; 6,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P70D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +557,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -566,7 +567,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,92%</t>
         </is>
       </c>
     </row>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 8,33</t>
+          <t>3,22; 8,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,4; 10,34</t>
+          <t>4,35; 10,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,83</t>
+          <t>4,35; 8,18</t>
         </is>
       </c>
     </row>
@@ -606,17 +607,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,87%</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,97</t>
+          <t>1,01; 4,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,58</t>
+          <t>4,55; 8,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,14</t>
+          <t>1,95; 5,37</t>
         </is>
       </c>
     </row>
@@ -656,7 +657,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -666,7 +667,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,02</t>
+          <t>1,66; 5,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,82</t>
+          <t>1,02; 3,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,85</t>
+          <t>1,66; 4,11</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,28</t>
+          <t>3,75; 8,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 11,23</t>
+          <t>4,2; 10,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,73</t>
+          <t>4,63; 8,4</t>
         </is>
       </c>
     </row>
@@ -756,17 +757,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,68%</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,77</t>
+          <t>2,53; 4,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,25</t>
+          <t>4,6; 7,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,5; 5,44</t>
+          <t>3,66; 5,72</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con capacidad laboral &lt;=6 (Likert 0 a 10)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17391</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17408</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>34799</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10674; 27257</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11157; 27293</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>25545; 48059</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21336</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25423</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>46759</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8168; 36827</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18307; 36088</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>23579; 64895</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11473</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6966</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18439</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5944; 20730</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3305; 12877</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11346; 27994</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>26704</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>33983</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>60686</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>17721; 39472</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>20199; 51392</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>44113; 80066</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>76904</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>83780</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>160684</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>49777; 96815</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>67339; 108218</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>125685; 196400</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>